--- a/data-raw/usgs.herbicides.xlsx
+++ b/data-raw/usgs.herbicides.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D1501-96F2-4EC5-85AA-66934C835FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="0" windowWidth="12300" windowHeight="8916"/>
+    <workbookView xWindow="1800" yWindow="760" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="4" r:id="rId1"/>
     <sheet name="sites" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -465,7 +477,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,9 +531,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -559,7 +571,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -665,7 +677,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -807,14 +819,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -824,15 +836,15 @@
       <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="8.88671875" style="3"/>
+    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -885,7 +897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -938,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1097,7 +1109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1203,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1362,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1415,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1468,7 +1480,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1521,7 +1533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1574,7 +1586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1680,7 +1692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1733,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1839,7 +1851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1892,7 +1904,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1945,7 +1957,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1998,7 +2010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>7</v>
       </c>
@@ -2051,7 +2063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>7</v>
       </c>
@@ -2104,7 +2116,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>7</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>8</v>
       </c>
@@ -2263,7 +2275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>8</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>8</v>
       </c>
@@ -2369,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2422,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>9</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -2528,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2581,7 +2593,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>10</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>10</v>
       </c>
@@ -2687,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>11</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>11</v>
       </c>
@@ -2846,7 +2858,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>11</v>
       </c>
@@ -2899,7 +2911,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>12</v>
       </c>
@@ -2952,7 +2964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>12</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>12</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>12</v>
       </c>
@@ -3111,7 +3123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>13</v>
       </c>
@@ -3164,7 +3176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>13</v>
       </c>
@@ -3217,7 +3229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>13</v>
       </c>
@@ -3270,7 +3282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>14</v>
       </c>
@@ -3323,7 +3335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>14</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>14</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>15</v>
       </c>
@@ -3482,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>15</v>
       </c>
@@ -3535,7 +3547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>15</v>
       </c>
@@ -3588,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>15</v>
       </c>
@@ -3641,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>16</v>
       </c>
@@ -3694,7 +3706,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>16</v>
       </c>
@@ -3747,7 +3759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>16</v>
       </c>
@@ -3800,7 +3812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>17</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>17</v>
       </c>
@@ -3906,7 +3918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>17</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>18</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>18</v>
       </c>
@@ -4065,7 +4077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>18</v>
       </c>
@@ -4118,7 +4130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>18</v>
       </c>
@@ -4171,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>19</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>19</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>19</v>
       </c>
@@ -4330,7 +4342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>20</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>20</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>20</v>
       </c>
@@ -4489,7 +4501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>21</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>21</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>21</v>
       </c>
@@ -4648,7 +4660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>21</v>
       </c>
@@ -4701,7 +4713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>22</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>22</v>
       </c>
@@ -4807,7 +4819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>22</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>23</v>
       </c>
@@ -4913,7 +4925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>23</v>
       </c>
@@ -4966,7 +4978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>23</v>
       </c>
@@ -5019,7 +5031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>23</v>
       </c>
@@ -5072,7 +5084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>23</v>
       </c>
@@ -5125,7 +5137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>24</v>
       </c>
@@ -5178,7 +5190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>24</v>
       </c>
@@ -5231,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>24</v>
       </c>
@@ -5284,7 +5296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>25</v>
       </c>
@@ -5337,7 +5349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>25</v>
       </c>
@@ -5390,7 +5402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>25</v>
       </c>
@@ -5443,7 +5455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>26</v>
       </c>
@@ -5496,7 +5508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>26</v>
       </c>
@@ -5549,7 +5561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>26</v>
       </c>
@@ -5602,7 +5614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>26</v>
       </c>
@@ -5655,7 +5667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>26</v>
       </c>
@@ -5708,7 +5720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>27</v>
       </c>
@@ -5761,7 +5773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>27</v>
       </c>
@@ -5814,7 +5826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>27</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>27</v>
       </c>
@@ -5920,7 +5932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>27</v>
       </c>
@@ -5973,7 +5985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>28</v>
       </c>
@@ -6026,7 +6038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>28</v>
       </c>
@@ -6079,7 +6091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>28</v>
       </c>
@@ -6132,7 +6144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>28</v>
       </c>
@@ -6185,7 +6197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>29</v>
       </c>
@@ -6238,7 +6250,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>29</v>
       </c>
@@ -6291,7 +6303,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>29</v>
       </c>
@@ -6344,7 +6356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>30</v>
       </c>
@@ -6397,7 +6409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>30</v>
       </c>
@@ -6450,7 +6462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>30</v>
       </c>
@@ -6503,7 +6515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>31</v>
       </c>
@@ -6556,7 +6568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>31</v>
       </c>
@@ -6609,7 +6621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>31</v>
       </c>
@@ -6662,7 +6674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>31</v>
       </c>
@@ -6715,7 +6727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>32</v>
       </c>
@@ -6768,7 +6780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>32</v>
       </c>
@@ -6821,7 +6833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>32</v>
       </c>
@@ -6874,7 +6886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>32</v>
       </c>
@@ -6927,7 +6939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>32</v>
       </c>
@@ -6980,7 +6992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>33</v>
       </c>
@@ -7033,7 +7045,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>33</v>
       </c>
@@ -7086,7 +7098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>33</v>
       </c>
@@ -7139,7 +7151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>34</v>
       </c>
@@ -7192,7 +7204,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>34</v>
       </c>
@@ -7245,7 +7257,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>34</v>
       </c>
@@ -7298,7 +7310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>35</v>
       </c>
@@ -7351,7 +7363,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>35</v>
       </c>
@@ -7404,7 +7416,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>35</v>
       </c>
@@ -7457,7 +7469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>36</v>
       </c>
@@ -7510,7 +7522,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>36</v>
       </c>
@@ -7563,7 +7575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>36</v>
       </c>
@@ -7616,7 +7628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>36</v>
       </c>
@@ -7669,7 +7681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>37</v>
       </c>
@@ -7722,7 +7734,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>37</v>
       </c>
@@ -7775,7 +7787,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>37</v>
       </c>
@@ -7828,7 +7840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>37</v>
       </c>
@@ -7881,7 +7893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>38</v>
       </c>
@@ -7934,7 +7946,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>38</v>
       </c>
@@ -7987,7 +7999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>38</v>
       </c>
@@ -8040,7 +8052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>39</v>
       </c>
@@ -8093,7 +8105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>39</v>
       </c>
@@ -8146,7 +8158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>39</v>
       </c>
@@ -8199,7 +8211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>39</v>
       </c>
@@ -8252,7 +8264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>40</v>
       </c>
@@ -8305,7 +8317,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>40</v>
       </c>
@@ -8358,7 +8370,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>40</v>
       </c>
@@ -8411,7 +8423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>40</v>
       </c>
@@ -8464,7 +8476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>41</v>
       </c>
@@ -8517,7 +8529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>41</v>
       </c>
@@ -8570,7 +8582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>41</v>
       </c>
@@ -8623,7 +8635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>42</v>
       </c>
@@ -8676,7 +8688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>42</v>
       </c>
@@ -8729,7 +8741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>42</v>
       </c>
@@ -8782,7 +8794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>42</v>
       </c>
@@ -8835,7 +8847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>43</v>
       </c>
@@ -8888,7 +8900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>43</v>
       </c>
@@ -8941,7 +8953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>43</v>
       </c>
@@ -8994,7 +9006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>44</v>
       </c>
@@ -9047,7 +9059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>44</v>
       </c>
@@ -9100,7 +9112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>44</v>
       </c>
@@ -9153,7 +9165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>45</v>
       </c>
@@ -9206,7 +9218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>45</v>
       </c>
@@ -9259,7 +9271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>45</v>
       </c>
@@ -9312,7 +9324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>45</v>
       </c>
@@ -9365,7 +9377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>46</v>
       </c>
@@ -9418,7 +9430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>46</v>
       </c>
@@ -9471,7 +9483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>46</v>
       </c>
@@ -9524,7 +9536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>46</v>
       </c>
@@ -9577,7 +9589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>46</v>
       </c>
@@ -9630,7 +9642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>46</v>
       </c>
@@ -9683,7 +9695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>47</v>
       </c>
@@ -9736,7 +9748,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>47</v>
       </c>
@@ -9789,7 +9801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>47</v>
       </c>
@@ -9842,7 +9854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>48</v>
       </c>
@@ -9895,7 +9907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>48</v>
       </c>
@@ -9948,7 +9960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>48</v>
       </c>
@@ -10001,7 +10013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>48</v>
       </c>
@@ -10054,7 +10066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>49</v>
       </c>
@@ -10107,7 +10119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>49</v>
       </c>
@@ -10160,7 +10172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>49</v>
       </c>
@@ -10213,7 +10225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>49</v>
       </c>
@@ -10266,7 +10278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>50</v>
       </c>
@@ -10319,7 +10331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>50</v>
       </c>
@@ -10372,7 +10384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>50</v>
       </c>
@@ -10425,7 +10437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>51</v>
       </c>
@@ -10478,7 +10490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>51</v>
       </c>
@@ -10531,7 +10543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>51</v>
       </c>
@@ -10584,7 +10596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>51</v>
       </c>
@@ -10637,19 +10649,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F186" s="1"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F187" s="1"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F188" s="1"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F189" s="1"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="F190" s="1"/>
     </row>
   </sheetData>
@@ -10659,19 +10671,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -10697,7 +10709,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10743,7 +10755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10789,7 +10801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10835,7 +10847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10881,7 +10893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10927,7 +10939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10973,7 +10985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11019,7 +11031,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11065,7 +11077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11111,7 +11123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11157,7 +11169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11203,7 +11215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11249,7 +11261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11295,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11341,7 +11353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11387,7 +11399,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11433,7 +11445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11479,7 +11491,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11525,7 +11537,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11571,7 +11583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11617,7 +11629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11663,7 +11675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11709,7 +11721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11755,7 +11767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11801,7 +11813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11847,7 +11859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11893,7 +11905,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11939,7 +11951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11985,7 +11997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12031,7 +12043,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12077,7 +12089,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12123,7 +12135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12169,7 +12181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12215,7 +12227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12261,7 +12273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12307,7 +12319,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -12353,7 +12365,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -12399,7 +12411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12445,7 +12457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12491,7 +12503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12537,7 +12549,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12583,7 +12595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12629,7 +12641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12675,7 +12687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12721,7 +12733,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12767,7 +12779,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12813,7 +12825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12859,7 +12871,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12905,7 +12917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12951,7 +12963,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12997,7 +13009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
